--- a/Data/Determinands.xlsx
+++ b/Data/Determinands.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">observedPropertyDeterminandCode</t>
   </si>
@@ -279,7 +279,55 @@
     <t xml:space="preserve">Total organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">Determinands extracted in extractWFDdata_WISE6_SE for TRaC waters.</t>
+    <t xml:space="preserve">EEA_3121-01-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA_3161-04-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate organic nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA_3164-07-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total nitrogen to total phosphorus ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN:TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{massRatio}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA_3153-02-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEA_3133-02-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinands extracted in extractWFDdata_WISE6_SE for TRaC waters. Database consulted November 2025. For further details see: https://discodata.eea.europa.eu and https://sdi.eea.europa.eu/catalogue/datahub/api/records/77976729-1aeb-4b61-a673-83db6c6a2ab2/formatters/xsl-view?output=pdf&amp;language=eng&amp;approved=true</t>
   </si>
 </sst>
 </file>
@@ -961,6 +1009,76 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -977,7 +1095,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
